--- a/tables/table1_demographics.xlsx
+++ b/tables/table1_demographics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Bike-Injuries/Manuscript/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0D61FDCE8F79A8D366075C52F3713AB2AEF7DD27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D577C471-049E-4FF4-8A43-6FF90C1F189A}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_7D181FDF8F79A8D366075C52F37BD2727A49E930" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4FFA944-5BB5-4F5D-BEFA-58B4109BC6EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>label</t>
   </si>
@@ -37,7 +37,16 @@
     <t>p</t>
   </si>
   <si>
-    <t>Alcohol</t>
+    <t>Total N (%)</t>
+  </si>
+  <si>
+    <t>60593 (38.9)</t>
+  </si>
+  <si>
+    <t>95173 (61.1)</t>
+  </si>
+  <si>
+    <t>alcohol.use</t>
   </si>
   <si>
     <t>Not Screened</t>
@@ -88,178 +97,214 @@
     <t>3585 (3.8)</t>
   </si>
   <si>
-    <t>Sex</t>
+    <t>(Missing)</t>
+  </si>
+  <si>
+    <t>0 (0.0)</t>
+  </si>
+  <si>
+    <t>motor_vehicle</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>45892 (75.7)</t>
+  </si>
+  <si>
+    <t>54831 (57.6)</t>
+  </si>
+  <si>
+    <t>unspecified</t>
+  </si>
+  <si>
+    <t>2045 (3.4)</t>
+  </si>
+  <si>
+    <t>3263 (3.4)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>12656 (20.9)</t>
+  </si>
+  <si>
+    <t>37079 (39.0)</t>
+  </si>
+  <si>
+    <t>sex.factor</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>50817 (80.0)</t>
-  </si>
-  <si>
-    <t>88765 (81.4)</t>
+    <t>48287 (79.7)</t>
+  </si>
+  <si>
+    <t>76876 (80.8)</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>12672 (20.0)</t>
-  </si>
-  <si>
-    <t>20250 (18.6)</t>
-  </si>
-  <si>
-    <t>Age (years)</t>
+    <t>12306 (20.3)</t>
+  </si>
+  <si>
+    <t>18297 (19.2)</t>
+  </si>
+  <si>
+    <t>age.factor</t>
   </si>
   <si>
     <t>0-9</t>
   </si>
   <si>
-    <t>2996 (4.7)</t>
-  </si>
-  <si>
-    <t>9306 (8.5)</t>
+    <t>2992 (4.9)</t>
+  </si>
+  <si>
+    <t>9292 (9.8)</t>
   </si>
   <si>
     <t>10-19</t>
   </si>
   <si>
-    <t>6187 (9.7)</t>
-  </si>
-  <si>
-    <t>21266 (19.5)</t>
+    <t>6066 (10.0)</t>
+  </si>
+  <si>
+    <t>20245 (21.3)</t>
   </si>
   <si>
     <t>20-29</t>
   </si>
   <si>
-    <t>4652 (7.3)</t>
-  </si>
-  <si>
-    <t>11506 (10.6)</t>
+    <t>4330 (7.1)</t>
+  </si>
+  <si>
+    <t>9486 (10.0)</t>
   </si>
   <si>
     <t>30-39</t>
   </si>
   <si>
-    <t>6654 (10.5)</t>
-  </si>
-  <si>
-    <t>13186 (12.1)</t>
+    <t>6203 (10.2)</t>
+  </si>
+  <si>
+    <t>10480 (11.0)</t>
   </si>
   <si>
     <t>40-49</t>
   </si>
   <si>
-    <t>8357 (13.2)</t>
-  </si>
-  <si>
-    <t>13469 (12.4)</t>
+    <t>7898 (13.0)</t>
+  </si>
+  <si>
+    <t>10877 (11.4)</t>
   </si>
   <si>
     <t>50-59</t>
   </si>
   <si>
-    <t>12753 (20.1)</t>
-  </si>
-  <si>
-    <t>18397 (16.9)</t>
+    <t>12105 (20.0)</t>
+  </si>
+  <si>
+    <t>15137 (15.9)</t>
   </si>
   <si>
     <t>60-69</t>
   </si>
   <si>
-    <t>13540 (21.3)</t>
-  </si>
-  <si>
-    <t>14630 (13.4)</t>
+    <t>12944 (21.4)</t>
+  </si>
+  <si>
+    <t>12765 (13.4)</t>
   </si>
   <si>
     <t>70+</t>
   </si>
   <si>
-    <t>8350 (13.2)</t>
-  </si>
-  <si>
-    <t>7255 (6.7)</t>
-  </si>
-  <si>
-    <t>Race</t>
+    <t>8055 (13.3)</t>
+  </si>
+  <si>
+    <t>6891 (7.2)</t>
+  </si>
+  <si>
+    <t>race.factor</t>
   </si>
   <si>
     <t>White</t>
   </si>
   <si>
-    <t>54979 (86.6)</t>
-  </si>
-  <si>
-    <t>77625 (71.2)</t>
+    <t>52544 (86.7)</t>
+  </si>
+  <si>
+    <t>68035 (71.5)</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>1902 (3.0)</t>
-  </si>
-  <si>
-    <t>15246 (14.0)</t>
+    <t>1734 (2.9)</t>
+  </si>
+  <si>
+    <t>12790 (13.4)</t>
   </si>
   <si>
     <t>Asian</t>
   </si>
   <si>
-    <t>2528 (4.0)</t>
-  </si>
-  <si>
-    <t>2840 (2.6)</t>
+    <t>2460 (4.1)</t>
+  </si>
+  <si>
+    <t>2648 (2.8)</t>
   </si>
   <si>
     <t>Native American</t>
   </si>
   <si>
-    <t>188 (0.3)</t>
-  </si>
-  <si>
-    <t>1079 (1.0)</t>
+    <t>175 (0.3)</t>
+  </si>
+  <si>
+    <t>917 (1.0)</t>
   </si>
   <si>
     <t>Pacific Islander</t>
   </si>
   <si>
-    <t>142 (0.2)</t>
-  </si>
-  <si>
-    <t>373 (0.3)</t>
+    <t>135 (0.2)</t>
+  </si>
+  <si>
+    <t>293 (0.3)</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>3750 (5.9)</t>
-  </si>
-  <si>
-    <t>11852 (10.9)</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
+    <t>3545 (5.9)</t>
+  </si>
+  <si>
+    <t>10490 (11.0)</t>
+  </si>
+  <si>
+    <t>ethnicity.factor</t>
   </si>
   <si>
     <t>Hispanic</t>
   </si>
   <si>
-    <t>4107 (6.5)</t>
-  </si>
-  <si>
-    <t>18594 (17.1)</t>
+    <t>3836 (6.3)</t>
+  </si>
+  <si>
+    <t>16009 (16.8)</t>
   </si>
   <si>
     <t>Not Hispanic</t>
   </si>
   <si>
-    <t>59382 (93.5)</t>
-  </si>
-  <si>
-    <t>90421 (82.9)</t>
+    <t>56757 (93.7)</t>
+  </si>
+  <si>
+    <t>79164 (83.2)</t>
   </si>
 </sst>
 </file>
@@ -612,16 +657,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -645,27 +693,27 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -703,225 +751,330 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
+      <c r="E12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
+      <c r="E15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D25" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
